--- a/manual-testing-login-module/Test Plan/Test Plan.xlsx
+++ b/manual-testing-login-module/Test Plan/Test Plan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\manual-testing-login-module\Test Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\software testing certification\Manual-Testing-Login-Module\Test Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF00251-25DA-4CF2-B618-45235C4B413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,19 +114,19 @@
 Tools: Browser, Excel</t>
   </si>
   <si>
-    <t>OS: Windows / Mac 
-Browser: Chrome / Firefox / Edge
- Network: LAN/Wi-Fi</t>
-  </si>
-  <si>
     <t>Test Plan document, Test Cases document,Bug Report, Test Summary/Report</t>
+  </si>
+  <si>
+    <t>OS: Windows 
+Browser: Chrome 
+ Network: Wi-Fi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +149,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -202,6 +211,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,14 +494,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +519,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -515,7 +527,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -523,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -531,7 +543,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3">
@@ -539,7 +551,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -547,7 +559,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -555,7 +567,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -563,7 +575,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -571,7 +583,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -579,15 +591,15 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -595,7 +607,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -603,7 +615,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -611,11 +623,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
